--- a/output/fit_clients/fit_round_25.xlsx
+++ b/output/fit_clients/fit_round_25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>8391230021.307542</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003814845481164525</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>8</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.412736239427838</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.8759143273820348</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.412736239427838</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5060103051.251328</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005759687239618854</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.9792943698369623</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.834504657503739</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.126207643675176</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-3.834504657503739</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>4175229270.490511</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003323785820821197</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.954097644146621</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.983225978018879</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-5.954097644146621</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4143119067.273734</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.0048103143743102</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.210874012339349</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.7779817277194608</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-3.210874012339349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>6149121449.439406</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.001891814613256126</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.9856274703411051</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.009472293849891</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.053127507427982</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-3.009472293849891</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>9156770164.059675</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.0008676028067859635</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>5.965912448101873</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9780645058408448</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-5.965912448101873</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6146400348.715761</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002123107643706837</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.20274599259867</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.158599447861586</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-4.20274599259867</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>5811229259.659842</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.00399526685607298</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.9355418886410176</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>5.864975415728631</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.102100356779092</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-5.864975415728631</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3590682157.892259</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004644946947928365</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.1707644666474913</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.831067533525425</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.2630565955679693</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-3.831067533525425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>5110872368.742939</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001419794747101434</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>8</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.035246389130923</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7184510293186911</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-3.035246389130923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>8416515838.21684</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.0017143301518038</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.386424410946312</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9816665602274885</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-4.386424410946312</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>4706379173.433234</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003516122678197904</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>8</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.058472727825471</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.9702288517043129</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-3.058472727825471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>5587825829.758532</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002349683339699577</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.9059496017170348</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.281685177219489</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.9935277170589329</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.281685177219489</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>6683958365.592393</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.00572442956566217</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4.120765312253347</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9600232321229381</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-4.120765312253347</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>7170967962.967465</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004839563268714364</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.929166763563204</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.8877043852045379</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.929166763563204</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6072547289.801124</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002757105765384502</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5.916158443164412</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9739156331907337</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-5.916158443164412</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5557291442.971271</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001141717975227954</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>8.357195827842334</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9829754517734611</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-8.357195827842334</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>4617795915.226372</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002210573997240279</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3.545911472328375</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.8811151372293664</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-3.545911472328375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4539598133.676126</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001126392110047242</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4.231347830159922</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8136335027255253</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-4.231347830159922</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>8057440455.209488</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005147903019294281</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.255947440674709</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.7870374663489896</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-3.255947440674709</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>6158844369.21075</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.003898420273974025</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>6.100725550709986</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8788452170626311</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-6.100725550709986</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>8480111240.355686</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001842979985213951</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>7</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.9689009902199552</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>3.22612093513858</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.060165927004965</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-3.22612093513858</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>7928038547.796771</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003791784893927618</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>5.037069972920309</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.007877478162625</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-5.037069972920309</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>5521503437.226829</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.002685903454870128</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.920502574777158</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.903528574564593</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.920502574777158</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>3978599277.173177</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001200651673284834</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>7</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>3.122459790341661</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.7815605359552819</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-3.122459790341661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>5988288395.462592</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003481480133796807</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3.88421657065755</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9234756150600147</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-3.88421657065755</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>5958086086.961676</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.005579818438692511</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>7</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.317622523775909</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.841438693852004</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.317622523775909</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>5725155982.762459</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001313235110863247</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>5.035335825901083</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9967678211115085</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-5.035335825901083</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>6589795779.003839</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003479897351385433</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>6</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.409949098145677</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8590086898546959</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-3.409949098145677</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>7221292737.778699</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002120196180007008</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>7</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.2837311829324023</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.364112058324652</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.4319961654727766</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-3.364112058324652</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>3651532545.652912</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001046367390438315</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>4.147250524919486</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.919080352634134</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-4.147250524919486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>6096952198.697838</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002548408575827785</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>4</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>4.388240228871456</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8381479951770739</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-4.388240228871456</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>5515954075.85885</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004427840033868889</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>2</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>6.144028419066168</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.815514294871475</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-6.144028419066168</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>4746684836.626846</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002695043295290433</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>4.924030600214137</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9542202522617117</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-4.924030600214137</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>8060233461.130532</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.002389664983319654</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>6</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.2396111620736893</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.536408908402832</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.4221399830358266</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.536408908402832</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4565461673.341607</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005353270256418845</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>6</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.713153272270097</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.9873082354858776</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-3.713153272270097</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3674015705.028208</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003434008881830907</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>5</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.9009638317032138</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>3.778343631351479</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.057761136472658</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-3.778343631351479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4032290969.80089</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002580964571965471</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>6.191425846523656</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.9049504894606643</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-6.191425846523656</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>6742906408.35171</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003577662289424122</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>5</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.2923085804395784</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="L40" t="n">
-        <v>4.050474218653459</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.5363360544447359</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-4.050474218653459</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6038568379.503434</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001058326306128977</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>5</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.881151680722278</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.896780970770535</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.881151680722278</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5235904142.479607</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.003751508689485658</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>4</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>4.191942165076042</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9857828120236515</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-4.191942165076042</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6953470433.097397</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004911201503824052</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>4</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>4.413805385198671</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9264925872924308</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-4.413805385198671</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>6827854053.55716</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.002068700775310175</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>5</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>3.980320750750463</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9397747870670549</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-3.980320750750463</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>6166302807.229534</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001347655300092201</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318265</v>
-      </c>
-      <c r="L45" t="n">
-        <v>5.212920279470303</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9803836091825644</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-5.212920279470303</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>8739723133.212191</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.003758535863927342</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>7</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.315941969719395</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.765859856844281</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-3.315941969719395</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>6346083634.871614</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002808745155332361</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>5</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.777321410734835</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.8831311105939922</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-3.777321410734835</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>5220628106.258664</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003673688214206916</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.9961484068875138</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>6.044953598331674</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.188955180900285</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-6.044953598331674</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>3780376732.67697</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.003656313283127498</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>7</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.422937102718557</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8305404338341951</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.422937102718557</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>5510931549.432041</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003675508139763606</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.002995681339906</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.005866667347744</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.002995681339906</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4877014742.066281</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004352655789522613</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>6</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3.6075736365304</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9313818773436022</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-3.6075736365304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>8612174775.655092</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.002100926811371798</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>5</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3.792792196302986</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8360235573087015</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-3.792792196302986</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5223168924.565865</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002313948555472787</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>4</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="L53" t="n">
-        <v>4.309208829764462</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9275845748830235</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-4.309208829764462</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>4824758950.627662</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.005689484317363933</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>8</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.8824011959270407</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>3.010138488905311</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.9339837242224054</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-3.010138488905311</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>7441423524.900299</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003560379429670934</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>5</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3.851251194487366</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.9024074776959842</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-3.851251194487366</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5870467923.036563</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002038405993463443</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>2</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>6.032637952725449</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9581973814287178</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-6.032637952725449</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>8486021736.960245</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003949636848499902</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4.887600728090083</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8616797907687916</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-4.887600728090083</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>4823719248.125383</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002764330086479791</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>7</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>3.142709875094085</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.7815605359552819</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-3.142709875094085</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>6690068544.770648</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.00408646542532392</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>7</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.8826405584602098</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3.253145530846655</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.9876335515693347</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-3.253145530846655</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>3978723621.738895</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.002881368248850544</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>5</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677434</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3.738238940677187</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8250537710338777</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-3.738238940677187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>6235861251.251464</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.00419584063287898</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
         <v>6</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.1945661021311406</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>4.21166499273826</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.2766255199547959</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-4.21166499273826</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>4957068710.917941</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003555230719293801</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>4.441439066371101</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8610764209349446</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-4.441439066371101</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>7061848556.831434</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.004352207072641051</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>5</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3.822376086015726</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.9157700622092824</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-3.822376086015726</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4793674839.294358</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004751135005299776</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>3</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>4.889567473131564</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9130171839613515</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-4.889567473131564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>6503758515.728561</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.003667213383682208</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>5.380699504251994</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.034641000937558</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-5.380699504251994</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>4569460880.934498</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003908533704508401</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702345</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.896462145730648</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.8911189389024664</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.896462145730648</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>7218728897.47195</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.003933361292311172</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>8.493088569381779</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.939803670673966</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-8.493088569381779</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8831748933.718109</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002946211991047222</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>5</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3.72692105564718</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7355367473033043</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-3.72692105564718</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4627705101.76896</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.0008452366195856124</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
         <v>4</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>4.367032954332577</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9618738377043142</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-4.367032954332577</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6441604389.321055</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.002787145969044636</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>5.746802162938477</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9041036136328291</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-5.746802162938477</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3581401823.613469</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003164640381213809</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>2</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>5.950034094892672</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8447808397531567</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-5.950034094892672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>7233357560.216889</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002344626734689076</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>2</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>5.993837104131619</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.093396739272232</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-5.993837104131619</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>6932760124.516088</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001226862389300582</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>3</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>4.911489006626972</v>
-      </c>
-      <c r="M73" t="n">
-        <v>-0.3464101615137755</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-4.911489006626972</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>6309912711.024393</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.003746217679626995</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>5</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.796318283730572</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8587219248301162</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.796318283730572</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>6045686453.374354</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.002945948221555192</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>7</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.373927920768598</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8132973642463954</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-3.373927920768598</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>7352958515.115499</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.00216023319181483</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>7</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>3.38004512543413</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.8790945407693489</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-3.38004512543413</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>8080231703.931088</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.004600581743936073</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>6.036539176492496</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.007633080999979</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-6.036539176492496</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>5996582562.519231</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004099671985009584</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>4</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>4.330820243690529</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9319397301184813</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-4.330820243690529</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>6597667881.980501</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002353800958244967</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>4</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.217313532329804</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9416651867044789</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-4.217313532329804</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>5115253525.162642</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003176043994110191</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>7</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.588041953425255</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9261974088932385</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.588041953425255</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>6563304859.75523</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003679033105656984</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>8.331184747516264</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1.011400196695629</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-8.331184747516264</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>7122772419.358092</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.005402143526442884</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>2</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>6.076038626628312</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.9571403201849532</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-6.076038626628312</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>9649690305.205507</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003454192141948445</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
         <v>8</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.9289288664098977</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>3.020233106831498</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.9713150732768701</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-3.020233106831498</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>7749881606.058797</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.004068550815286173</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.2625223727132072</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>3.513057742967527</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.4325199166720793</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-3.513057742967527</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>5061058919.702652</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003162505230154793</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>5</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>3.800764207518791</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.91797824884089</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-3.800764207518791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>6985540964.140478</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.0019125761628066</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
         <v>7</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307498</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.554446591322989</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9392215879534039</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.554446591322989</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>3829759875.579904</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.00109105246829921</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>7</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764211</v>
-      </c>
-      <c r="L87" t="n">
-        <v>3.275899938168661</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9510037397727631</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-3.275899938168661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>8459106550.693378</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.003821931747402883</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>5</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>3.793558188006791</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8311659710086231</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-3.793558188006791</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>7175305040.571937</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.003478703561828496</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>5</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.965690162736236</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9278500571875073</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.965690162736236</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>6520009379.634453</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002806541814719116</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>5</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>3.789610636235748</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9256654201798112</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-3.789610636235748</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>6084040994.73521</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003217193999339905</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>2</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>5.864203410326598</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8471740822996432</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-5.864203410326598</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4669620936.359602</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.002856316643190269</v>
       </c>
       <c r="G92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>6</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.61340828967784</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.000548715529883</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.61340828967784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>6342356538.067293</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001451446908439169</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>6</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3.557082773523819</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.8947957510470699</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-3.557082773523819</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>6616021202.104205</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001217713083526585</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>8.457759181889603</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.056438972926701</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-8.457759181889603</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>5929161238.973846</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.00228124766790402</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>5</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.794170542857005</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.8922542196727089</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.794170542857005</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>9575990917.536993</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002387919930537287</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>8</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>3.140958261254011</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.8712791698994842</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-3.140958261254011</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>7673554672.300895</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004405461250678123</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>5</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.9248537884639195</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>4.00129021258491</v>
-      </c>
-      <c r="M97" t="n">
-        <v>1.050951786602755</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-4.00129021258491</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>5753939295.053849</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004354171562626866</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>5</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.676857144960413</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8444570996485109</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.676857144960413</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3497796357.460041</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.004418989887590939</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>6</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.9303058999989469</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="L99" t="n">
-        <v>3.588433670554649</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.068226265725512</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-3.588433670554649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>6181583755.163742</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.003559655006783686</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>6</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.471611010966766</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.7786494896900479</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.471611010966766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>7819209253.996497</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001446866272283414</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>6</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.6832530367772164</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>3.82449199731279</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8625368496505945</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-3.82449199731279</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_25.xlsx
+++ b/output/fit_clients/fit_round_25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>8391230021.307542</v>
+        <v>2499915570.502049</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003814845481164525</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+        <v>0.07994259053988217</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.02747593686230176</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1249957847.903802</v>
       </c>
     </row>
     <row r="3">
@@ -511,19 +527,25 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>5060103051.251328</v>
+        <v>2628511534.826289</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005759687239618854</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+        <v>0.1813835652550466</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03065564982132273</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1314255904.625839</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4175229270.490511</v>
+        <v>4075833849.570762</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003323785820821197</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
+        <v>0.1325218713327665</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02627976628908706</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2037916944.106264</v>
       </c>
     </row>
     <row r="5">
@@ -567,19 +595,25 @@
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4143119067.273734</v>
+        <v>4153119149.629203</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0048103143743102</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1081943866909939</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03929503681774372</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2076559568.268777</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>6149121449.439406</v>
+        <v>1895735170.745319</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001891814613256126</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
+        <v>0.1053275325263792</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.05560818706092975</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>947867625.9965098</v>
       </c>
     </row>
     <row r="7">
@@ -623,19 +663,25 @@
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>9156770164.059675</v>
+        <v>3068121421.93334</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0008676028067859635</v>
-      </c>
-      <c r="G7" t="b">
+        <v>0.09080850821823436</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03067746800384996</v>
+      </c>
+      <c r="H7" t="b">
         <v>1</v>
       </c>
-      <c r="H7" t="n">
-        <v>7</v>
+      <c r="I7" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1534060669.01195</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>6146400348.715761</v>
+        <v>2643581569.833553</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002123107643706837</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
+        <v>0.1548897681351877</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0221521065074629</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1321790805.765874</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>5811229259.659842</v>
+        <v>1947289032.467565</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00399526685607298</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
+        <v>0.1894619465299106</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03073588662023978</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>973644549.9505006</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3590682157.892259</v>
+        <v>4735863881.49855</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004644946947928365</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1394539880990333</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04675019929818032</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2367932019.395759</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>5110872368.742939</v>
+        <v>3640928838.945704</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001419794747101434</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1254522652810163</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04944160719868269</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>10</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1820464406.889012</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>524</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2817046324.370851</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1720344622929502</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04201872000217467</v>
+      </c>
+      <c r="H12" t="b">
         <v>1</v>
       </c>
-      <c r="D12" t="n">
-        <v>537</v>
-      </c>
-      <c r="E12" t="n">
-        <v>8416515838.21684</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.0017143301518038</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
+      <c r="I12" t="n">
+        <v>8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1408523163.227087</v>
       </c>
     </row>
     <row r="13">
@@ -791,19 +867,25 @@
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4706379173.433234</v>
+        <v>4433351535.566392</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003516122678197904</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
+        <v>0.08050776667229062</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02525154380429546</v>
+      </c>
+      <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2216675800.468614</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>5587825829.758532</v>
+        <v>2484954288.118696</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002349683339699577</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
+        <v>0.1647409156095139</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.04327748914544188</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1242477215.582451</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>6683958365.592393</v>
+        <v>1230559648.804655</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00572442956566217</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
+        <v>0.1008470088004044</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03603446728828982</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>615279848.5794636</v>
       </c>
     </row>
     <row r="16">
@@ -875,19 +969,25 @@
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>7170967962.967465</v>
+        <v>2730488928.658853</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004839563268714364</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
+        <v>0.1129272993180569</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03486113366486501</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1365244474.349513</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6072547289.801124</v>
+        <v>5114134663.154207</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002757105765384502</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
+        <v>0.1188928866591768</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03853234681460722</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2557067310.870397</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5557291442.971271</v>
+        <v>3218107009.348174</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001141717975227954</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
+        <v>0.1694274257792598</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02084239388631588</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1609053518.896063</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>4617795915.226372</v>
+        <v>1075573552.099653</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002210573997240279</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1574670346818843</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01852270135090943</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>537786823.4978771</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>4539598133.676126</v>
+        <v>2158762729.885597</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001126392110047242</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
+        <v>0.1521878483011554</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02173091727445438</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1079381374.159347</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>8057440455.209488</v>
+        <v>2011651908.396834</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005147903019294281</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
+        <v>0.06768395823696714</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03846522010750966</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1005825988.770759</v>
       </c>
     </row>
     <row r="22">
@@ -1043,19 +1173,25 @@
         <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>6158844369.21075</v>
+        <v>3662396190.66497</v>
       </c>
       <c r="F22" t="n">
-        <v>0.003898420273974025</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
+        <v>0.1105740236280218</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05380022941496506</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>7</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1831198116.964126</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>8480111240.355686</v>
+        <v>1446721581.375097</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001842979985213951</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
+        <v>0.123549352344146</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04982162431448823</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>723360785.3760369</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>7928038547.796771</v>
+        <v>3730525516.297003</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003791784893927618</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
+        <v>0.1433086615921157</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02875070513800441</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>7</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1865262744.033225</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>5521503437.226829</v>
+        <v>1263340140.981413</v>
       </c>
       <c r="F25" t="n">
-        <v>0.002685903454870128</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
+        <v>0.1108651099302318</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02199009370699869</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>631670073.6205345</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>3978599277.173177</v>
+        <v>1435000608.144047</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001200651673284834</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.08293735825666468</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03578781600142955</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>717500382.3799782</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>417</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3621854418.969853</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.1137150586132082</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02099464130688394</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
         <v>5</v>
       </c>
-      <c r="D27" t="n">
-        <v>517</v>
-      </c>
-      <c r="E27" t="n">
-        <v>5988288395.462592</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.003481480133796807</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
+      <c r="J27" t="n">
+        <v>1810927238.196989</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>5958086086.961676</v>
+        <v>2563924395.398752</v>
       </c>
       <c r="F28" t="n">
-        <v>0.005579818438692511</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>6</v>
+        <v>0.09430502080781328</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04203945047164483</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1281962170.85689</v>
       </c>
     </row>
     <row r="29">
@@ -1239,19 +1411,25 @@
         <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5725155982.762459</v>
+        <v>3953256396.88087</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001313235110863247</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
+        <v>0.1389105109687009</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03030747414889544</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>11</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1976628218.373593</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>6589795779.003839</v>
+        <v>1480205336.069806</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003479897351385433</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
+        <v>0.1242351236557974</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03515306335758742</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>740102646.1374243</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>7221292737.778699</v>
+        <v>1407740688.94997</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002120196180007008</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>5</v>
+        <v>0.07594876812089181</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03210178145653478</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>703870246.820724</v>
       </c>
     </row>
     <row r="32">
@@ -1323,19 +1513,25 @@
         <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>3651532545.652912</v>
+        <v>1679864679.4883</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001046367390438315</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1203307311309536</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02645844832158524</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>839932445.1309646</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>6096952198.697838</v>
+        <v>2222071587.64841</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002548408575827785</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>5</v>
+        <v>0.1861043673387396</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.05358079874456072</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>8</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1111035855.464295</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>5515954075.85885</v>
+        <v>1534919123.82422</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004427840033868889</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>8</v>
+        <v>0.1176090745921868</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02807353917681122</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>767459511.7215799</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>4746684836.626846</v>
+        <v>915127423.1462526</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002695043295290433</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>6</v>
+        <v>0.07403664725223032</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.04419384686593131</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>457563748.5292274</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>8060233461.130532</v>
+        <v>2091199141.411995</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002389664983319654</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>7</v>
+        <v>0.1181740308807202</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02144367475200372</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>6</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1045599625.222719</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4565461673.341607</v>
+        <v>1780588475.812187</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005353270256418845</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>5</v>
+        <v>0.09426553292388215</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03587881640595266</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4</v>
+      </c>
+      <c r="J37" t="n">
+        <v>890294234.7750566</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3674015705.028208</v>
+        <v>1900838098.167212</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003434008881830907</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.07970775345260213</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03451997358970878</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>950419041.497944</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4032290969.80089</v>
+        <v>1670643714.906658</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002580964571965471</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
+        <v>0.169515843092129</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02503380001747614</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>835321901.7553639</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>6742906408.35171</v>
+        <v>1507340067.442807</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003577662289424122</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>7</v>
+        <v>0.1257148958636975</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05707203759659112</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>753669997.8732454</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6038568379.503434</v>
+        <v>2058690210.499402</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001058326306128977</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
+        <v>0.1267760757144536</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04139476297590308</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>7</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1029345173.444024</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5235904142.479607</v>
+        <v>3142303771.115812</v>
       </c>
       <c r="F42" t="n">
-        <v>0.003751508689485658</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>7</v>
+        <v>0.07679512674335615</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.04143991508818971</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>8</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1571151855.52028</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6953470433.097397</v>
+        <v>2518736836.182855</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004911201503824052</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>7</v>
+        <v>0.1920564924064715</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02383295426730589</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>8</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1259368464.62806</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>6827854053.55716</v>
+        <v>2334761923.458155</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002068700775310175</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>7</v>
+        <v>0.09109367218466333</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02734967929090648</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1167381134.603221</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>6166302807.229534</v>
+        <v>1922172159.839973</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001347655300092201</v>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
+        <v>0.1352355840554113</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.040777021984975</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>961086062.7157197</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>8739723133.212191</v>
+        <v>4672916600.13555</v>
       </c>
       <c r="F46" t="n">
-        <v>0.003758535863927342</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>4</v>
+        <v>0.1163315402869072</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.038650968234244</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>9</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2336458307.92132</v>
       </c>
     </row>
     <row r="47">
@@ -1743,19 +2023,25 @@
         <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>6346083634.871614</v>
+        <v>5005308109.54384</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002808745155332361</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>4</v>
+        <v>0.1541873589969255</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.03695870193937337</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>6</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2502654110.679302</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>5220628106.258664</v>
+        <v>3725901231.629538</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003673688214206916</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>4</v>
+        <v>0.06911744415190633</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03881250844533417</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>8</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1862950665.89121</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>3780376732.67697</v>
+        <v>1311921220.526131</v>
       </c>
       <c r="F49" t="n">
-        <v>0.003656313283127498</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1423084290015268</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.04141834850452404</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>655960671.3219244</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>5510931549.432041</v>
+        <v>3189987811.792223</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003675508139763606</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
+        <v>0.1361126799603724</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.04434243201625029</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
         <v>8</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1594993951.993834</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4877014742.066281</v>
+        <v>980692995.780998</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004352655789522613</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.12381133176634</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04351937344463811</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>490346584.6820767</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>8612174775.655092</v>
+        <v>3764281205.99944</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002100926811371798</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>6</v>
+        <v>0.08949777387023375</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05647111991535222</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>10</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1882140673.133928</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>5223168924.565865</v>
+        <v>2477776999.178266</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002313948555472787</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>5</v>
+        <v>0.1976725924281341</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.03467822297719141</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>7</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1238888567.850917</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4824758950.627662</v>
+        <v>3772234803.466968</v>
       </c>
       <c r="F54" t="n">
-        <v>0.005689484317363933</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>5</v>
+        <v>0.1201051425221583</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.03951260947548531</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>8</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1886117447.702769</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>7441423524.900299</v>
+        <v>3890219023.663494</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003560379429670934</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>8</v>
+        <v>0.1371579870385573</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02124018163426894</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>6</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1945109481.707542</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5870467923.036563</v>
+        <v>1841951768.314149</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002038405993463443</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3</v>
+        <v>0.1159570458559984</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.04838433579452352</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>920975875.5719322</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>8486021736.960245</v>
+        <v>3475031476.224356</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003949636848499902</v>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="n">
-        <v>5</v>
+        <v>0.1477918566893192</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02463901648485647</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>8</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1737515782.191968</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>4823719248.125383</v>
+        <v>1594300799.302944</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002764330086479791</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>3</v>
+        <v>0.1869288508111216</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02456934946113946</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>797150421.964164</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>6690068544.770648</v>
+        <v>4780309742.767861</v>
       </c>
       <c r="F59" t="n">
-        <v>0.00408646542532392</v>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
+        <v>0.07994181655726793</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03822240592513874</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>7</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2390154809.478549</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3978723621.738895</v>
+        <v>3623536619.649853</v>
       </c>
       <c r="F60" t="n">
-        <v>0.002881368248850544</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1651116978349834</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02111606982831989</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>7</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1811768445.23814</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
+        <v>2</v>
+      </c>
+      <c r="D61" t="n">
+        <v>517</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3339302142.43861</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.1729020157085487</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02512999013863469</v>
+      </c>
+      <c r="H61" t="b">
         <v>1</v>
       </c>
-      <c r="D61" t="n">
-        <v>488</v>
-      </c>
-      <c r="E61" t="n">
-        <v>6235861251.251464</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.00419584063287898</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>6</v>
+      <c r="I61" t="n">
+        <v>8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1669651019.392695</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>4957068710.917941</v>
+        <v>1821903607.989209</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003555230719293801</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>4</v>
+        <v>0.1279750041000217</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03261938657328989</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>910951835.1266236</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>7061848556.831434</v>
+        <v>3853087064.713119</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004352207072641051</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>6</v>
+        <v>0.07084861625667348</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.04245582609073868</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>7</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1926543601.058112</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4793674839.294358</v>
+        <v>5427697469.352896</v>
       </c>
       <c r="F64" t="n">
-        <v>0.004751135005299776</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1830432348112107</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03335791513129685</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>8</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2713848870.792619</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6503758515.728561</v>
+        <v>5145872322.405731</v>
       </c>
       <c r="F65" t="n">
-        <v>0.003667213383682208</v>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="n">
-        <v>6</v>
+        <v>0.1667729294479527</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02291393076635724</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>9</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2572936111.183827</v>
       </c>
     </row>
     <row r="66">
@@ -2275,19 +2669,25 @@
         <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4569460880.934498</v>
+        <v>4365317746.097677</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003908533704508401</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5</v>
+        <v>0.1372333152848041</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03830826576827901</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>7</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2182658865.984892</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>7218728897.47195</v>
+        <v>3501582954.943563</v>
       </c>
       <c r="F67" t="n">
-        <v>0.003933361292311172</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>4</v>
+        <v>0.07785131421823978</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03449131988626576</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>8</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1750791453.110099</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8831748933.718109</v>
+        <v>4865006943.708467</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002946211991047222</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>5</v>
+        <v>0.1031927681091856</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03314207464275312</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>8</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2432503519.826604</v>
       </c>
     </row>
     <row r="69">
@@ -2359,19 +2771,25 @@
         <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4627705101.76896</v>
+        <v>1724371606.84579</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0008452366195856124</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>4</v>
+        <v>0.1585745114074882</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.03807724487345665</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>862185772.5126499</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6441604389.321055</v>
+        <v>3224917985.910183</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002787145969044636</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>6</v>
+        <v>0.06680952088461936</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03683453918561282</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>7</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1612458984.320732</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3581401823.613469</v>
+        <v>5298528124.980314</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003164640381213809</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1391313632936721</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.03124726506797334</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>9</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2649264190.224969</v>
       </c>
     </row>
     <row r="72">
@@ -2443,19 +2873,25 @@
         <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>7233357560.216889</v>
+        <v>1705739522.520009</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002344626734689076</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>5</v>
+        <v>0.09251100645188803</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.05142222887071285</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>852869754.8526385</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>6932760124.516088</v>
+        <v>3243543363.542845</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001226862389300582</v>
-      </c>
-      <c r="G73" t="b">
+        <v>0.1018888231399709</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04056519309388401</v>
+      </c>
+      <c r="H73" t="b">
         <v>1</v>
       </c>
-      <c r="H73" t="n">
-        <v>6</v>
+      <c r="I73" t="n">
+        <v>9</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1621771655.237233</v>
       </c>
     </row>
     <row r="74">
@@ -2499,19 +2941,25 @@
         <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>6309912711.024393</v>
+        <v>3612554936.342353</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003746217679626995</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>7</v>
+        <v>0.1319573517417438</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.03536493631104497</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>8</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1806277480.40296</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>6045686453.374354</v>
+        <v>1596087732.274581</v>
       </c>
       <c r="F75" t="n">
-        <v>0.002945948221555192</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>5</v>
+        <v>0.1364726259814147</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03653968656606724</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>798043868.0622512</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>7352958515.115499</v>
+        <v>4155933593.553214</v>
       </c>
       <c r="F76" t="n">
-        <v>0.00216023319181483</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
+        <v>0.08496294077688574</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02131379608606428</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>5</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2077966787.827683</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>8080231703.931088</v>
+        <v>1906871085.558945</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004600581743936073</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>9</v>
+        <v>0.1805615147811204</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.0237810265645614</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>953435590.3025032</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>5996582562.519231</v>
+        <v>4273132683.302057</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004099671985009584</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>5</v>
+        <v>0.1165261919806507</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.0406541963925172</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>9</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2136566287.559473</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>6597667881.980501</v>
+        <v>1853307968.600588</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002353800958244967</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>5</v>
+        <v>0.1221903727876756</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03860983773238948</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>926654079.9764956</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5115253525.162642</v>
+        <v>4061349902.408439</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003176043994110191</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>9</v>
+        <v>0.07402110436942408</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.02729048963341047</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>5</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2030674953.519333</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>6563304859.75523</v>
+        <v>3914935005.410424</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003679033105656984</v>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" t="n">
-        <v>4</v>
+        <v>0.0843912335546889</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.03255168506304251</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>5</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1957467462.492947</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>7122772419.358092</v>
+        <v>4048543293.290794</v>
       </c>
       <c r="F82" t="n">
-        <v>0.005402143526442884</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>4</v>
+        <v>0.2125738096144529</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02640958300512522</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>9</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2024271683.442308</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>9649690305.205507</v>
+        <v>2482556923.978845</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003454192141948445</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>8</v>
+        <v>0.1405824025510818</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.02947873694836765</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1241278507.219995</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>7749881606.058797</v>
+        <v>1784650638.648081</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004068550815286173</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>7</v>
+        <v>0.08767195539887551</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.03645453663784281</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>892325355.6428276</v>
       </c>
     </row>
     <row r="85">
@@ -2807,19 +3315,25 @@
         <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>5061058919.702652</v>
+        <v>2806503000.595317</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003162505230154793</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1801276472382406</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.05660176861337203</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>9</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1403251538.873879</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>6985540964.140478</v>
+        <v>2129097375.334777</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0019125761628066</v>
-      </c>
-      <c r="G86" t="b">
+        <v>0.1068952214839448</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02405114535957915</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>1</v>
       </c>
-      <c r="H86" t="n">
-        <v>7</v>
+      <c r="J86" t="n">
+        <v>1064548733.039817</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>3829759875.579904</v>
+        <v>1441769925.654223</v>
       </c>
       <c r="F87" t="n">
-        <v>0.00109105246829921</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.128896606862883</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03538475111725957</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>720885080.1550298</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>8459106550.693378</v>
+        <v>3393156840.037715</v>
       </c>
       <c r="F88" t="n">
-        <v>0.003821931747402883</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>6</v>
+        <v>0.1358182045983618</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03578961586442653</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>10</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1696578489.106155</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>7175305040.571937</v>
+        <v>2864825922.950901</v>
       </c>
       <c r="F89" t="n">
-        <v>0.003478703561828496</v>
-      </c>
-      <c r="G89" t="b">
+        <v>0.1350640931714704</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03189899240948167</v>
+      </c>
+      <c r="H89" t="b">
         <v>1</v>
       </c>
-      <c r="H89" t="n">
-        <v>5</v>
+      <c r="I89" t="n">
+        <v>8</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1432413009.249246</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>6520009379.634453</v>
+        <v>1549317183.010254</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002806541814719116</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>3</v>
+        <v>0.1120276695125131</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.05422026215548818</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>774658579.0052135</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>6084040994.73521</v>
+        <v>1726187220.253437</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003217193999339905</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>7</v>
+        <v>0.1429454277338183</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04659736480836398</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>863093618.6463283</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4669620936.359602</v>
+        <v>2780243870.024145</v>
       </c>
       <c r="F92" t="n">
-        <v>0.002856316643190269</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.09845316928271453</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.04771513209566177</v>
+      </c>
+      <c r="H92" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>8</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1390121939.92563</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>6342356538.067293</v>
+        <v>5022030561.689234</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001451446908439169</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>8</v>
+        <v>0.1387763129436389</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04112958803822152</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>7</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2511015215.088292</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>6616021202.104205</v>
+        <v>2530726892.877311</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001217713083526585</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>8</v>
+        <v>0.1364327262016023</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.04228962256254416</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1265363513.673012</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
+        <v>2</v>
+      </c>
+      <c r="D95" t="n">
+        <v>433</v>
+      </c>
+      <c r="E95" t="n">
+        <v>3238331741.015402</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.09999206901885384</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04310686541654747</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>6</v>
       </c>
-      <c r="D95" t="n">
-        <v>511</v>
-      </c>
-      <c r="E95" t="n">
-        <v>5929161238.973846</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.00228124766790402</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>7</v>
+      <c r="J95" t="n">
+        <v>1619165852.675677</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>9575990917.536993</v>
+        <v>1583309042.748302</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002387919930537287</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>7</v>
+        <v>0.0860961422369723</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03524165326255832</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>791654552.5586509</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>7673554672.300895</v>
+        <v>4047205253.021623</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004405461250678123</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>7</v>
+        <v>0.1575500039174191</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02750035321281683</v>
+      </c>
+      <c r="H97" t="b">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>8</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2023602686.469804</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
+        <v>3</v>
+      </c>
+      <c r="D98" t="n">
+        <v>453</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2744928682.122256</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.1166095709160372</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02251151446901369</v>
+      </c>
+      <c r="H98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
         <v>6</v>
       </c>
-      <c r="D98" t="n">
-        <v>616</v>
-      </c>
-      <c r="E98" t="n">
-        <v>5753939295.053849</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.004354171562626866</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>10</v>
+      <c r="J98" t="n">
+        <v>1372464308.239957</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3497796357.460041</v>
+        <v>3250440510.571427</v>
       </c>
       <c r="F99" t="n">
-        <v>0.004418989887590939</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1407179523026107</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.03222334188234492</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>8</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1625220259.242437</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
+        <v>4</v>
+      </c>
+      <c r="D100" t="n">
+        <v>486</v>
+      </c>
+      <c r="E100" t="n">
+        <v>3063976603.189859</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.1756972022483331</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.0186095897577994</v>
+      </c>
+      <c r="H100" t="b">
         <v>1</v>
       </c>
-      <c r="D100" t="n">
-        <v>422</v>
-      </c>
-      <c r="E100" t="n">
-        <v>6181583755.163742</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0.003559655006783686</v>
-      </c>
-      <c r="G100" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
+      <c r="I100" t="n">
+        <v>7</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1531988297.35628</v>
       </c>
     </row>
     <row r="101">
@@ -3255,19 +3859,25 @@
         <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>7819209253.996497</v>
+        <v>2197473952.94401</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001446866272283414</v>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" t="n">
-        <v>8</v>
+        <v>0.1859446276983671</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.0477864930782092</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>10</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1098736959.237104</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_25.xlsx
+++ b/output/fit_clients/fit_round_25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2499915570.502049</v>
+        <v>1537218178.530926</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07994259053988217</v>
+        <v>0.1141354940241368</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02747593686230176</v>
+        <v>0.03535464827459212</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1249957847.903802</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2628511534.826289</v>
+        <v>2086027668.60694</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1813835652550466</v>
+        <v>0.1820875956691123</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03065564982132273</v>
+        <v>0.03548280788935566</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1314255904.625839</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4075833849.570762</v>
+        <v>4668973632.406747</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1325218713327665</v>
+        <v>0.1160356404549504</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02627976628908706</v>
+        <v>0.03507170540399302</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2037916944.106264</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4153119149.629203</v>
+        <v>2685680816.398771</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1081943866909939</v>
+        <v>0.07187864875838469</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03929503681774372</v>
+        <v>0.04507941112882117</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2076559568.268777</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1895735170.745319</v>
+        <v>2003686388.783789</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1053275325263792</v>
+        <v>0.1479231446117358</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05560818706092975</v>
+        <v>0.046165975533174</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>947867625.9965098</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3068121421.93334</v>
+        <v>2110598872.496806</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09080850821823436</v>
+        <v>0.07109212626005999</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03067746800384996</v>
+        <v>0.03929526070454955</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1534060669.01195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2643581569.833553</v>
+        <v>2405797817.667497</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1548897681351877</v>
+        <v>0.2085127535710517</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0221521065074629</v>
+        <v>0.02422240686471313</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>8</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1321790805.765874</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1947289032.467565</v>
+        <v>2216584795.145815</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1894619465299106</v>
+        <v>0.1254880727530781</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03073588662023978</v>
+        <v>0.03561809524634215</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>973644549.9505006</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4735863881.49855</v>
+        <v>5471659087.344025</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1394539880990333</v>
+        <v>0.1922348319475737</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04675019929818032</v>
+        <v>0.05058610526399673</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>10</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2367932019.395759</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3640928838.945704</v>
+        <v>2944873613.894117</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1254522652810163</v>
+        <v>0.1773228126300761</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04944160719868269</v>
+        <v>0.03678237612441915</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>10</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1820464406.889012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2817046324.370851</v>
+        <v>3177781215.372705</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1720344622929502</v>
+        <v>0.1454298439120961</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04201872000217467</v>
+        <v>0.03472752850478642</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>8</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1408523163.227087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4433351535.566392</v>
+        <v>4485502269.771412</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08050776667229062</v>
+        <v>0.06653505422224683</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02525154380429546</v>
+        <v>0.02032973065586481</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>8</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2216675800.468614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2484954288.118696</v>
+        <v>3230138097.046019</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1647409156095139</v>
+        <v>0.142352017335252</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04327748914544188</v>
+        <v>0.0370123491874073</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>8</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1242477215.582451</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1230559648.804655</v>
+        <v>1212953690.016785</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1008470088004044</v>
+        <v>0.108164024814412</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03603446728828982</v>
+        <v>0.04019484245727468</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>615279848.5794636</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2730488928.658853</v>
+        <v>2493632008.029844</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1129272993180569</v>
+        <v>0.09301806239268678</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03486113366486501</v>
+        <v>0.04081129396993324</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1365244474.349513</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5114134663.154207</v>
+        <v>4301512672.271895</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1188928866591768</v>
+        <v>0.1344478605853267</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03853234681460722</v>
+        <v>0.04947633481559683</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>7</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2557067310.870397</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3218107009.348174</v>
+        <v>3993461655.652919</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1694274257792598</v>
+        <v>0.1544328649814084</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02084239388631588</v>
+        <v>0.03047749353728265</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>8</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1609053518.896063</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1075573552.099653</v>
+        <v>1160146601.891727</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1574670346818843</v>
+        <v>0.1276256341757128</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01852270135090943</v>
+        <v>0.0243087495222433</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>537786823.4978771</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2158762729.885597</v>
+        <v>2500207142.257962</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1521878483011554</v>
+        <v>0.1139053497763068</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02173091727445438</v>
+        <v>0.02400051300228514</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1079381374.159347</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2011651908.396834</v>
+        <v>2230855655.65205</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06768395823696714</v>
+        <v>0.06389452558178128</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03846522010750966</v>
+        <v>0.03012976509371481</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1005825988.770759</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3662396190.66497</v>
+        <v>4025694161.762199</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1105740236280218</v>
+        <v>0.1113785738326948</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05380022941496506</v>
+        <v>0.0539692496574181</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>7</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1831198116.964126</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1446721581.375097</v>
+        <v>1109849213.532715</v>
       </c>
       <c r="F23" t="n">
-        <v>0.123549352344146</v>
+        <v>0.1755308264025466</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04982162431448823</v>
+        <v>0.05062815363413494</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>723360785.3760369</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3730525516.297003</v>
+        <v>2534721068.799716</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1433086615921157</v>
+        <v>0.09441617549937632</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02875070513800441</v>
+        <v>0.0260195544167758</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>7</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1865262744.033225</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1263340140.981413</v>
+        <v>1233343814.447326</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1108651099302318</v>
+        <v>0.1118733091186055</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02199009370699869</v>
+        <v>0.01947742425093624</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>631670073.6205345</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1435000608.144047</v>
+        <v>1064588846.31767</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08293735825666468</v>
+        <v>0.1167379468532835</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03578781600142955</v>
+        <v>0.03368435875875286</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>717500382.3799782</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3621854418.969853</v>
+        <v>2965853312.928957</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1137150586132082</v>
+        <v>0.1571191464082186</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02099464130688394</v>
+        <v>0.01665088332370447</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1810927238.196989</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2563924395.398752</v>
+        <v>3547150895.3319</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09430502080781328</v>
+        <v>0.1387414647339772</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04203945047164483</v>
+        <v>0.04806590638993856</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>8</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1281962170.85689</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3953256396.88087</v>
+        <v>5518566374.78511</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1389105109687009</v>
+        <v>0.1198854621079415</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03030747414889544</v>
+        <v>0.0462617946782437</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>11</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1976628218.373593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1480205336.069806</v>
+        <v>1841039566.196473</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1242351236557974</v>
+        <v>0.1271329494993083</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03515306335758742</v>
+        <v>0.02955890063974839</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>740102646.1374243</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1407740688.94997</v>
+        <v>1255109945.855836</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07594876812089181</v>
+        <v>0.08453671074386843</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03210178145653478</v>
+        <v>0.0373854731932841</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>703870246.820724</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1679864679.4883</v>
+        <v>1508042420.277461</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1203307311309536</v>
+        <v>0.08645226328284358</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02645844832158524</v>
+        <v>0.0327344042540688</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>839932445.1309646</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2222071587.64841</v>
+        <v>2292858927.732201</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1861043673387396</v>
+        <v>0.1816805080732732</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05358079874456072</v>
+        <v>0.05831661468355794</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>8</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1111035855.464295</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1534919123.82422</v>
+        <v>1290391292.027237</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1176090745921868</v>
+        <v>0.1091635659465669</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02807353917681122</v>
+        <v>0.0233535429423409</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>767459511.7215799</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>915127423.1462526</v>
+        <v>995307529.0390208</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07403664725223032</v>
+        <v>0.09898582472997282</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04419384686593131</v>
+        <v>0.03435158533158352</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>457563748.5292274</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2091199141.411995</v>
+        <v>2171666057.570816</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1181740308807202</v>
+        <v>0.1807441498722762</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02144367475200372</v>
+        <v>0.02400885953999895</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>6</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1045599625.222719</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1780588475.812187</v>
+        <v>2698322236.736475</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09426553292388215</v>
+        <v>0.08800630157710218</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03587881640595266</v>
+        <v>0.03707936430236276</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>4</v>
-      </c>
-      <c r="J37" t="n">
-        <v>890294234.7750566</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1900838098.167212</v>
+        <v>1777155933.132393</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07970775345260213</v>
+        <v>0.1195680911794294</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03451997358970878</v>
+        <v>0.0364847128115058</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>950419041.497944</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1670643714.906658</v>
+        <v>1639121655.048731</v>
       </c>
       <c r="F39" t="n">
-        <v>0.169515843092129</v>
+        <v>0.1489281233168913</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02503380001747614</v>
+        <v>0.02942172646635605</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>835321901.7553639</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1507340067.442807</v>
+        <v>1638929378.378559</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1257148958636975</v>
+        <v>0.1312964217955228</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05707203759659112</v>
+        <v>0.03853090581320343</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>753669997.8732454</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2058690210.499402</v>
+        <v>2935334590.264191</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1267760757144536</v>
+        <v>0.1506673433738222</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04139476297590308</v>
+        <v>0.0403425597087793</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>7</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1029345173.444024</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3142303771.115812</v>
+        <v>3189370868.971877</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07679512674335615</v>
+        <v>0.1088795158602416</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04143991508818971</v>
+        <v>0.03104953030719195</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>8</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1571151855.52028</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2518736836.182855</v>
+        <v>2618680526.439937</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1920564924064715</v>
+        <v>0.2021392659058572</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02383295426730589</v>
+        <v>0.01633475597144652</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>8</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1259368464.62806</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2334761923.458155</v>
+        <v>1771460705.041911</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09109367218466333</v>
+        <v>0.08856966054030353</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02734967929090648</v>
+        <v>0.02775812931289504</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1167381134.603221</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1922172159.839973</v>
+        <v>2462431673.227023</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1352355840554113</v>
+        <v>0.147107713624388</v>
       </c>
       <c r="G45" t="n">
-        <v>0.040777021984975</v>
+        <v>0.05383246880908937</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>961086062.7157197</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4672916600.13555</v>
+        <v>3827663394.685629</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1163315402869072</v>
+        <v>0.1757942934200105</v>
       </c>
       <c r="G46" t="n">
-        <v>0.038650968234244</v>
+        <v>0.04028967926262139</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>9</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2336458307.92132</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5005308109.54384</v>
+        <v>5011711550.622168</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1541873589969255</v>
+        <v>0.1439299399855945</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03695870193937337</v>
+        <v>0.04728495294418555</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>6</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2502654110.679302</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3725901231.629538</v>
+        <v>4674067544.219252</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06911744415190633</v>
+        <v>0.0789791656026707</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03881250844533417</v>
+        <v>0.02492235664401081</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>8</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1862950665.89121</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1311921220.526131</v>
+        <v>1932973133.227367</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1423084290015268</v>
+        <v>0.1605970520021253</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04141834850452404</v>
+        <v>0.03843506646130861</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>655960671.3219244</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3189987811.792223</v>
+        <v>3592698177.915732</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1361126799603724</v>
+        <v>0.1678746023248312</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04434243201625029</v>
+        <v>0.05247510504329192</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>8</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1594993951.993834</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>980692995.780998</v>
+        <v>1265666077.643226</v>
       </c>
       <c r="F51" t="n">
-        <v>0.12381133176634</v>
+        <v>0.1206162278269507</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04351937344463811</v>
+        <v>0.05131656627049416</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>490346584.6820767</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3764281205.99944</v>
+        <v>4822519880.268645</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08949777387023375</v>
+        <v>0.08610645582035877</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05647111991535222</v>
+        <v>0.04553863957135285</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>10</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1882140673.133928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2477776999.178266</v>
+        <v>2615727853.873578</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1976725924281341</v>
+        <v>0.1338025675625073</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03467822297719141</v>
+        <v>0.02318692836907815</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>7</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1238888567.850917</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3772234803.466968</v>
+        <v>3479978275.888492</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1201051425221583</v>
+        <v>0.1047599094101628</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03951260947548531</v>
+        <v>0.03720103185541149</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>8</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1886117447.702769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3890219023.663494</v>
+        <v>4757987319.729757</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1371579870385573</v>
+        <v>0.1639667162207944</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02124018163426894</v>
+        <v>0.02341496898625513</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>6</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1945109481.707542</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1841951768.314149</v>
+        <v>1529963547.043082</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1159570458559984</v>
+        <v>0.1339191866367741</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04838433579452352</v>
+        <v>0.05170629654736299</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>920975875.5719322</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3475031476.224356</v>
+        <v>3801592767.618608</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1477918566893192</v>
+        <v>0.132346654982829</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02463901648485647</v>
+        <v>0.01885349588165049</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>8</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1737515782.191968</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1594300799.302944</v>
+        <v>1890478349.257291</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1869288508111216</v>
+        <v>0.1974254640968208</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02456934946113946</v>
+        <v>0.02977450332393296</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>797150421.964164</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4780309742.767861</v>
+        <v>4736254204.146461</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07994181655726793</v>
+        <v>0.1190654106048792</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03822240592513874</v>
+        <v>0.0500102001319481</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>7</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2390154809.478549</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3623536619.649853</v>
+        <v>3521457785.135426</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1651116978349834</v>
+        <v>0.1669988585220368</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02111606982831989</v>
+        <v>0.0332687241867313</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>7</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1811768445.23814</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3339302142.43861</v>
+        <v>2380513826.3195</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1729020157085487</v>
+        <v>0.1095866125202151</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02512999013863469</v>
+        <v>0.02367558015654797</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>8</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1669651019.392695</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1821903607.989209</v>
+        <v>1411788079.776762</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1279750041000217</v>
+        <v>0.1200166019464344</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03261938657328989</v>
+        <v>0.04568847611112389</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>910951835.1266236</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3853087064.713119</v>
+        <v>5110706629.649624</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07084861625667348</v>
+        <v>0.06639568879493953</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04245582609073868</v>
+        <v>0.03040495019682754</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>7</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1926543601.058112</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5427697469.352896</v>
+        <v>3897230080.344781</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1830432348112107</v>
+        <v>0.1502783584449084</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03335791513129685</v>
+        <v>0.03192633399919672</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>8</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2713848870.792619</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5145872322.405731</v>
+        <v>5671989432.896999</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1667729294479527</v>
+        <v>0.1449225106684196</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02291393076635724</v>
+        <v>0.02358215899702933</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>9</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2572936111.183827</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4365317746.097677</v>
+        <v>5535577480.467698</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1372333152848041</v>
+        <v>0.09940075712918298</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03830826576827901</v>
+        <v>0.04075165680846068</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>7</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2182658865.984892</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3501582954.943563</v>
+        <v>2532145530.727238</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07785131421823978</v>
+        <v>0.08934657310336142</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03449131988626576</v>
+        <v>0.05159208146558475</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>8</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1750791453.110099</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4865006943.708467</v>
+        <v>4457584271.573916</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1031927681091856</v>
+        <v>0.1184160282791984</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03314207464275312</v>
+        <v>0.03406857952356186</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>8</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2432503519.826604</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1724371606.84579</v>
+        <v>1889217728.83751</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1585745114074882</v>
+        <v>0.1186566075633647</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03807724487345665</v>
+        <v>0.05366714666893786</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>862185772.5126499</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3224917985.910183</v>
+        <v>2285831209.477245</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06680952088461936</v>
+        <v>0.09498603282273881</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03683453918561282</v>
+        <v>0.04379956771789304</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>7</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1612458984.320732</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5298528124.980314</v>
+        <v>4502418338.927114</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1391313632936721</v>
+        <v>0.1320047417176165</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03124726506797334</v>
+        <v>0.03207717410043698</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>9</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2649264190.224969</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1705739522.520009</v>
+        <v>1944488803.096629</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09251100645188803</v>
+        <v>0.07757297161031593</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05142222887071285</v>
+        <v>0.04113771415956329</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>852869754.8526385</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3243543363.542845</v>
+        <v>3579874499.151764</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1018888231399709</v>
+        <v>0.0915480209505664</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04056519309388401</v>
+        <v>0.04778315905696121</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>9</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1621771655.237233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3612554936.342353</v>
+        <v>2972814255.558248</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1319573517417438</v>
+        <v>0.1519254809976691</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03536493631104497</v>
+        <v>0.03356229668143574</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>8</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1806277480.40296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1596087732.274581</v>
+        <v>2173557885.592885</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1364726259814147</v>
+        <v>0.1246775679772712</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03653968656606724</v>
+        <v>0.035535278484213</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>798043868.0622512</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4155933593.553214</v>
+        <v>3328156529.17624</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08496294077688574</v>
+        <v>0.09556705996206907</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02131379608606428</v>
+        <v>0.02750918507215652</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>5</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2077966787.827683</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1906871085.558945</v>
+        <v>1408227645.776962</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1805615147811204</v>
+        <v>0.1438733350567777</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0237810265645614</v>
+        <v>0.03091089378263713</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>953435590.3025032</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4273132683.302057</v>
+        <v>3516464932.057247</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1165261919806507</v>
+        <v>0.0834622704574845</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0406541963925172</v>
+        <v>0.03889430353696663</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>9</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2136566287.559473</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1853307968.600588</v>
+        <v>1593315771.603495</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1221903727876756</v>
+        <v>0.1107198261695347</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03860983773238948</v>
+        <v>0.03523552240313659</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>926654079.9764956</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4061349902.408439</v>
+        <v>4382389109.921604</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07402110436942408</v>
+        <v>0.09634532593042204</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02729048963341047</v>
+        <v>0.0239244523436022</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>5</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2030674953.519333</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3914935005.410424</v>
+        <v>3975008629.604377</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0843912335546889</v>
+        <v>0.09595820289053343</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03255168506304251</v>
+        <v>0.02632598791122221</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>5</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1957467462.492947</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4048543293.290794</v>
+        <v>5080693872.938984</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2125738096144529</v>
+        <v>0.1555292726534197</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02640958300512522</v>
+        <v>0.02357353073667833</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>9</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2024271683.442308</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2482556923.978845</v>
+        <v>2202989173.17101</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1405824025510818</v>
+        <v>0.1164520927940431</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02947873694836765</v>
+        <v>0.0302572091242486</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1241278507.219995</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1784650638.648081</v>
+        <v>2354185440.064521</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08767195539887551</v>
+        <v>0.0904320726077207</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03645453663784281</v>
+        <v>0.03954273695088354</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>892325355.6428276</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2806503000.595317</v>
+        <v>2963800370.445199</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1801276472382406</v>
+        <v>0.1520594570277564</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05660176861337203</v>
+        <v>0.04848530200547864</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>9</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1403251538.873879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2129097375.334777</v>
+        <v>2739526079.805568</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1068952214839448</v>
+        <v>0.1358977457878232</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02405114535957915</v>
+        <v>0.02333895540572033</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1064548733.039817</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1441769925.654223</v>
+        <v>1164177515.744386</v>
       </c>
       <c r="F87" t="n">
-        <v>0.128896606862883</v>
+        <v>0.1550071104789687</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03538475111725957</v>
+        <v>0.03859102959550639</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>720885080.1550298</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3393156840.037715</v>
+        <v>2898192091.01203</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1358182045983618</v>
+        <v>0.1170926126546197</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03578961586442653</v>
+        <v>0.03495092752387816</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>10</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1696578489.106155</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2864825922.950901</v>
+        <v>2588258592.295949</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1350640931714704</v>
+        <v>0.1528357430513871</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03189899240948167</v>
+        <v>0.02557639977183872</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>8</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1432413009.249246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1549317183.010254</v>
+        <v>1427206259.654752</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1120276695125131</v>
+        <v>0.1161818656084792</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05422026215548818</v>
+        <v>0.04036502376942334</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>774658579.0052135</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1726187220.253437</v>
+        <v>1890834215.724812</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1429454277338183</v>
+        <v>0.1638826231143882</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04659736480836398</v>
+        <v>0.06204870914948186</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>863093618.6463283</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2780243870.024145</v>
+        <v>2723448153.188225</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09845316928271453</v>
+        <v>0.09778587054292906</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04771513209566177</v>
+        <v>0.03604576798719899</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>8</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1390121939.92563</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5022030561.689234</v>
+        <v>3666346982.217896</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1387763129436389</v>
+        <v>0.08737295565332133</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04112958803822152</v>
+        <v>0.05472211765459857</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>7</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2511015215.088292</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2530726892.877311</v>
+        <v>1790053412.82343</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1364327262016023</v>
+        <v>0.1084481574563989</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04228962256254416</v>
+        <v>0.03612296703640078</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1265363513.673012</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3238331741.015402</v>
+        <v>2763878292.593241</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09999206901885384</v>
+        <v>0.08489213206968842</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04310686541654747</v>
+        <v>0.03958432510921881</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>6</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1619165852.675677</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1583309042.748302</v>
+        <v>2188179070.474597</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0860961422369723</v>
+        <v>0.1095691406467196</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03524165326255832</v>
+        <v>0.04492257687516976</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>791654552.5586509</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4047205253.021623</v>
+        <v>4534696884.04218</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1575500039174191</v>
+        <v>0.1729109268035874</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02750035321281683</v>
+        <v>0.01917057590731814</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>8</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2023602686.469804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2744928682.122256</v>
+        <v>2583230878.731881</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1166095709160372</v>
+        <v>0.1070388554842605</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02251151446901369</v>
+        <v>0.03238581264068498</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>6</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1372464308.239957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3250440510.571427</v>
+        <v>3383266058.618433</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1407179523026107</v>
+        <v>0.1269727302246158</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03222334188234492</v>
+        <v>0.02791120974894571</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>8</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1625220259.242437</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3063976603.189859</v>
+        <v>4719622325.38646</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1756972022483331</v>
+        <v>0.1353639799268428</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0186095897577994</v>
+        <v>0.01820723373517987</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>7</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1531988297.35628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2197473952.94401</v>
+        <v>2830314738.665273</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1859446276983671</v>
+        <v>0.200962363680564</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0477864930782092</v>
+        <v>0.04170611451650238</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>10</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1098736959.237104</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_25.xlsx
+++ b/output/fit_clients/fit_round_25.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1537218178.530926</v>
+        <v>2019927200.181583</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1141354940241368</v>
+        <v>0.08562435999574741</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03535464827459212</v>
+        <v>0.03143686863911147</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2086027668.60694</v>
+        <v>1931421783.993705</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1820875956691123</v>
+        <v>0.1287408996797566</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03548280788935566</v>
+        <v>0.03564422919515631</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4668973632.406747</v>
+        <v>3224686242.971859</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1160356404549504</v>
+        <v>0.1561355109698941</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03507170540399302</v>
+        <v>0.02826184205193807</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2685680816.398771</v>
+        <v>2831425649.930983</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07187864875838469</v>
+        <v>0.09769308227641338</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04507941112882117</v>
+        <v>0.0419780859429458</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2003686388.783789</v>
+        <v>2635756792.050777</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1479231446117358</v>
+        <v>0.1470661817201238</v>
       </c>
       <c r="G6" t="n">
-        <v>0.046165975533174</v>
+        <v>0.03955063044648096</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2110598872.496806</v>
+        <v>2050482881.81917</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07109212626005999</v>
+        <v>0.0938411041777477</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03929526070454955</v>
+        <v>0.04970624707041072</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2405797817.667497</v>
+        <v>2401388272.759478</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2085127535710517</v>
+        <v>0.1404850906401717</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02422240686471313</v>
+        <v>0.02572469572559689</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2216584795.145815</v>
+        <v>2137841654.747971</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1254880727530781</v>
+        <v>0.1231601654576608</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03561809524634215</v>
+        <v>0.02360392192584863</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5471659087.344025</v>
+        <v>5104898529.76647</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1922348319475737</v>
+        <v>0.2150064503985656</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05058610526399673</v>
+        <v>0.05136747987057153</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2944873613.894117</v>
+        <v>3221279192.03482</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1773228126300761</v>
+        <v>0.1295141572811603</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03678237612441915</v>
+        <v>0.04115295414311131</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3177781215.372705</v>
+        <v>2904424775.636656</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1454298439120961</v>
+        <v>0.1666105890801853</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03472752850478642</v>
+        <v>0.05051227309493271</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4485502269.771412</v>
+        <v>3770228370.786689</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06653505422224683</v>
+        <v>0.09815004891697485</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02032973065586481</v>
+        <v>0.0217908386841567</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3230138097.046019</v>
+        <v>3321866591.932912</v>
       </c>
       <c r="F14" t="n">
-        <v>0.142352017335252</v>
+        <v>0.1445690965508543</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0370123491874073</v>
+        <v>0.04383915231264435</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1212953690.016785</v>
+        <v>1417800040.234375</v>
       </c>
       <c r="F15" t="n">
-        <v>0.108164024814412</v>
+        <v>0.0898889446252837</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04019484245727468</v>
+        <v>0.03795897391244957</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2493632008.029844</v>
+        <v>2169810359.208786</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09301806239268678</v>
+        <v>0.1008332299434212</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04081129396993324</v>
+        <v>0.05081990173018616</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4301512672.271895</v>
+        <v>4981001363.993757</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1344478605853267</v>
+        <v>0.1676710415743017</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04947633481559683</v>
+        <v>0.04555820330345478</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3993461655.652919</v>
+        <v>2883958216.168099</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1544328649814084</v>
+        <v>0.1541996648078991</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03047749353728265</v>
+        <v>0.03257764930792197</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1160146601.891727</v>
+        <v>1256871826.096268</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1276256341757128</v>
+        <v>0.1899374012114939</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0243087495222433</v>
+        <v>0.02727158545525881</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2500207142.257962</v>
+        <v>2785166150.842787</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1139053497763068</v>
+        <v>0.121682726638579</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02400051300228514</v>
+        <v>0.03151329190138415</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2230855655.65205</v>
+        <v>1717117361.91452</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06389452558178128</v>
+        <v>0.07079916272830555</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03012976509371481</v>
+        <v>0.03368091775046074</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4025694161.762199</v>
+        <v>2890799686.582657</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1113785738326948</v>
+        <v>0.1212634344953069</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0539692496574181</v>
+        <v>0.0558112945173664</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1109849213.532715</v>
+        <v>1438550102.496042</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1755308264025466</v>
+        <v>0.1595549700573523</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05062815363413494</v>
+        <v>0.04644956017933411</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2534721068.799716</v>
+        <v>3836622054.341836</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09441617549937632</v>
+        <v>0.09961121218388153</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0260195544167758</v>
+        <v>0.03308115286485909</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1233343814.447326</v>
+        <v>1272193475.347335</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1118733091186055</v>
+        <v>0.08182686038035306</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01947742425093624</v>
+        <v>0.02289499053237716</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1064588846.31767</v>
+        <v>1291907579.088841</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1167379468532835</v>
+        <v>0.1101702016457729</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03368435875875286</v>
+        <v>0.02794194566660936</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2965853312.928957</v>
+        <v>4353470724.860679</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1571191464082186</v>
+        <v>0.1362589013667121</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01665088332370447</v>
+        <v>0.02340325405819145</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3547150895.3319</v>
+        <v>3833381103.755098</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1387414647339772</v>
+        <v>0.1407316701381338</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04806590638993856</v>
+        <v>0.04334414827657449</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5518566374.78511</v>
+        <v>5417010832.388036</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1198854621079415</v>
+        <v>0.1028509266030425</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0462617946782437</v>
+        <v>0.03681441080170356</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1841039566.196473</v>
+        <v>1553280076.26898</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1271329494993083</v>
+        <v>0.09031926044826429</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02955890063974839</v>
+        <v>0.03281923755317611</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1255109945.855836</v>
+        <v>1251987837.368083</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08453671074386843</v>
+        <v>0.07625222959478632</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0373854731932841</v>
+        <v>0.04829845937547749</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1508042420.277461</v>
+        <v>1880478689.500945</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08645226328284358</v>
+        <v>0.07979937128335111</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0327344042540688</v>
+        <v>0.02567969193252714</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2292858927.732201</v>
+        <v>2783951062.57923</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1816805080732732</v>
+        <v>0.1867483203250286</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05831661468355794</v>
+        <v>0.04325819288339348</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1290391292.027237</v>
+        <v>1229289049.883295</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1091635659465669</v>
+        <v>0.105363814304028</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0233535429423409</v>
+        <v>0.0266335997810758</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>995307529.0390208</v>
+        <v>1291192261.228068</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09898582472997282</v>
+        <v>0.117599363806061</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03435158533158352</v>
+        <v>0.0377905062278636</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2171666057.570816</v>
+        <v>2329998072.844988</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1807441498722762</v>
+        <v>0.1109378050807326</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02400885953999895</v>
+        <v>0.02105168809878284</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2698322236.736475</v>
+        <v>1947539759.645719</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08800630157710218</v>
+        <v>0.1077972659448885</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03707936430236276</v>
+        <v>0.03245601913505825</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1777155933.132393</v>
+        <v>1631006157.027109</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1195680911794294</v>
+        <v>0.09686723124465599</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0364847128115058</v>
+        <v>0.03074141810477627</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1639121655.048731</v>
+        <v>2102226360.774167</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1489281233168913</v>
+        <v>0.133705620419833</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02942172646635605</v>
+        <v>0.02689824701473129</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1638929378.378559</v>
+        <v>1547162011.518012</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1312964217955228</v>
+        <v>0.1549575302087095</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03853090581320343</v>
+        <v>0.05366061954729982</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2935334590.264191</v>
+        <v>2522720491.176041</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1506673433738222</v>
+        <v>0.1387911957837509</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0403425597087793</v>
+        <v>0.0435798631542965</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3189370868.971877</v>
+        <v>2908183421.622597</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1088795158602416</v>
+        <v>0.1225189982628497</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03104953030719195</v>
+        <v>0.03452920240866756</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2618680526.439937</v>
+        <v>2562792806.678162</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2021392659058572</v>
+        <v>0.1539578863960792</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01633475597144652</v>
+        <v>0.02442286091451103</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1771460705.041911</v>
+        <v>2135102758.999503</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08856966054030353</v>
+        <v>0.06946386370944085</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02775812931289504</v>
+        <v>0.03626702269684346</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2462431673.227023</v>
+        <v>1681375085.48478</v>
       </c>
       <c r="F45" t="n">
-        <v>0.147107713624388</v>
+        <v>0.1805320408694145</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05383246880908937</v>
+        <v>0.04754141617236486</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3827663394.685629</v>
+        <v>4546145941.782247</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1757942934200105</v>
+        <v>0.1539745598682642</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04028967926262139</v>
+        <v>0.04740312455079978</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5011711550.622168</v>
+        <v>3835748412.075731</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1439299399855945</v>
+        <v>0.1810521826316827</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04728495294418555</v>
+        <v>0.04715080404015552</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4674067544.219252</v>
+        <v>3850111032.342544</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0789791656026707</v>
+        <v>0.0804246071806923</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02492235664401081</v>
+        <v>0.03354965920508199</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1932973133.227367</v>
+        <v>1531261588.937059</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1605970520021253</v>
+        <v>0.164007621744509</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03843506646130861</v>
+        <v>0.03567897250853885</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3592698177.915732</v>
+        <v>2977056773.274071</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1678746023248312</v>
+        <v>0.1726009584995336</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05247510504329192</v>
+        <v>0.05078264684314721</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1265666077.643226</v>
+        <v>1419706620.907891</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1206162278269507</v>
+        <v>0.1220304254746992</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05131656627049416</v>
+        <v>0.05383882489951082</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4822519880.268645</v>
+        <v>3790434691.310887</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08610645582035877</v>
+        <v>0.1047578837699439</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04553863957135285</v>
+        <v>0.04291918169279338</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2615727853.873578</v>
+        <v>2955978299.242702</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1338025675625073</v>
+        <v>0.189992748852271</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02318692836907815</v>
+        <v>0.02373133805191198</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3479978275.888492</v>
+        <v>3851840747.391459</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1047599094101628</v>
+        <v>0.1168886101640631</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03720103185541149</v>
+        <v>0.04426908549169194</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4757987319.729757</v>
+        <v>4211748798.641133</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1639667162207944</v>
+        <v>0.2219167479574483</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02341496898625513</v>
+        <v>0.0292461188185502</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1529963547.043082</v>
+        <v>1568729214.523816</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1339191866367741</v>
+        <v>0.1503995750638385</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05170629654736299</v>
+        <v>0.04499121276087326</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3801592767.618608</v>
+        <v>4508887727.480391</v>
       </c>
       <c r="F57" t="n">
-        <v>0.132346654982829</v>
+        <v>0.1295582390783604</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01885349588165049</v>
+        <v>0.02319375137539432</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1890478349.257291</v>
+        <v>1505060391.079485</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1974254640968208</v>
+        <v>0.1710397244168423</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02977450332393296</v>
+        <v>0.0333579816180056</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4736254204.146461</v>
+        <v>3724512529.38567</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1190654106048792</v>
+        <v>0.107103864293015</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0500102001319481</v>
+        <v>0.04356099530804515</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3521457785.135426</v>
+        <v>2741841060.693204</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1669988585220368</v>
+        <v>0.1620436288721828</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0332687241867313</v>
+        <v>0.02128604074183331</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2380513826.3195</v>
+        <v>3389650598.652829</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1095866125202151</v>
+        <v>0.1140214111895041</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02367558015654797</v>
+        <v>0.02704406539490708</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1411788079.776762</v>
+        <v>2001313781.156957</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1200166019464344</v>
+        <v>0.1455493895720838</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04568847611112389</v>
+        <v>0.04189045080204778</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5110706629.649624</v>
+        <v>3843626498.410416</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06639568879493953</v>
+        <v>0.06982431991584864</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03040495019682754</v>
+        <v>0.0320412351771576</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3897230080.344781</v>
+        <v>3933312130.418529</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1502783584449084</v>
+        <v>0.1199671308729086</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03192633399919672</v>
+        <v>0.03198809714374429</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5671989432.896999</v>
+        <v>3773036411.662714</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1449225106684196</v>
+        <v>0.1140353837898896</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02358215899702933</v>
+        <v>0.02749428560877108</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5535577480.467698</v>
+        <v>3630446185.759859</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09940075712918298</v>
+        <v>0.1048008903034224</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04075165680846068</v>
+        <v>0.04473124501707895</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2532145530.727238</v>
+        <v>2975688539.238811</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08934657310336142</v>
+        <v>0.06912114562847491</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05159208146558475</v>
+        <v>0.04803184320956923</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4457584271.573916</v>
+        <v>5669703674.650575</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1184160282791984</v>
+        <v>0.1478653116944468</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03406857952356186</v>
+        <v>0.03956776760890209</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1889217728.83751</v>
+        <v>2292355414.67477</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1186566075633647</v>
+        <v>0.1520067155925297</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05366714666893786</v>
+        <v>0.0370222480437688</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2285831209.477245</v>
+        <v>3605702805.402871</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09498603282273881</v>
+        <v>0.1021776669107357</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04379956771789304</v>
+        <v>0.03317405068309552</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4502418338.927114</v>
+        <v>4363617205.352667</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1320047417176165</v>
+        <v>0.1692605585555072</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03207717410043698</v>
+        <v>0.03199689020578014</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1944488803.096629</v>
+        <v>2092426275.577501</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07757297161031593</v>
+        <v>0.09889295536780682</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04113771415956329</v>
+        <v>0.03443983043962301</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3579874499.151764</v>
+        <v>2622188287.811364</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0915480209505664</v>
+        <v>0.07431148642179158</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04778315905696121</v>
+        <v>0.04451692562243557</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2972814255.558248</v>
+        <v>3338877138.674851</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1519254809976691</v>
+        <v>0.1377771255860287</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03356229668143574</v>
+        <v>0.02237468985397479</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2173557885.592885</v>
+        <v>2365424833.42904</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1246775679772712</v>
+        <v>0.1594192814970928</v>
       </c>
       <c r="G75" t="n">
-        <v>0.035535278484213</v>
+        <v>0.03169905822576904</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3328156529.17624</v>
+        <v>4624756629.391981</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09556705996206907</v>
+        <v>0.1122947657916792</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02750918507215652</v>
+        <v>0.02146883630093593</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1408227645.776962</v>
+        <v>1926672901.546511</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1438733350567777</v>
+        <v>0.1239683976695859</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03091089378263713</v>
+        <v>0.02410885525553373</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3516464932.057247</v>
+        <v>4060201822.331456</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0834622704574845</v>
+        <v>0.1143725319294775</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03889430353696663</v>
+        <v>0.03546047952270128</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1593315771.603495</v>
+        <v>1678911266.573433</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1107198261695347</v>
+        <v>0.1354230134886699</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03523552240313659</v>
+        <v>0.03137972309521725</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4382389109.921604</v>
+        <v>4772920918.063789</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09634532593042204</v>
+        <v>0.08676133422196609</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0239244523436022</v>
+        <v>0.03318195270678034</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3975008629.604377</v>
+        <v>3869343876.594801</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09595820289053343</v>
+        <v>0.1138818431037305</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02632598791122221</v>
+        <v>0.03234513961255194</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5080693872.938984</v>
+        <v>4746587879.06622</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1555292726534197</v>
+        <v>0.1608422647549884</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02357353073667833</v>
+        <v>0.02080357916418736</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2202989173.17101</v>
+        <v>2441307817.733648</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1164520927940431</v>
+        <v>0.1392228812548761</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0302572091242486</v>
+        <v>0.02969182556940131</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2354185440.064521</v>
+        <v>2191065115.473234</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0904320726077207</v>
+        <v>0.09409028241132086</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03954273695088354</v>
+        <v>0.05057250509209921</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2963800370.445199</v>
+        <v>3562189908.2487</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1520594570277564</v>
+        <v>0.1790212424461637</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04848530200547864</v>
+        <v>0.04474223413325961</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2739526079.805568</v>
+        <v>1923804783.405743</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1358977457878232</v>
+        <v>0.1682317163704297</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02333895540572033</v>
+        <v>0.02739380684911674</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1164177515.744386</v>
+        <v>1167568773.605272</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1550071104789687</v>
+        <v>0.1172579637605147</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03859102959550639</v>
+        <v>0.04066312588425035</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2898192091.01203</v>
+        <v>3376320853.514552</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1170926126546197</v>
+        <v>0.1107693401457476</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03495092752387816</v>
+        <v>0.03719221681922632</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2588258592.295949</v>
+        <v>3375841592.483022</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1528357430513871</v>
+        <v>0.110027291490746</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02557639977183872</v>
+        <v>0.0281023986747567</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1427206259.654752</v>
+        <v>1563771410.44518</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1161818656084792</v>
+        <v>0.1044415479616666</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04036502376942334</v>
+        <v>0.04612055458998989</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1890834215.724812</v>
+        <v>1800252104.091881</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1638826231143882</v>
+        <v>0.1735885461119338</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06204870914948186</v>
+        <v>0.04195694538510138</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2723448153.188225</v>
+        <v>2244731170.384375</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09778587054292906</v>
+        <v>0.08311941349558601</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03604576798719899</v>
+        <v>0.04604560086865796</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3666346982.217896</v>
+        <v>4444138503.427858</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08737295565332133</v>
+        <v>0.1146790642393003</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05472211765459857</v>
+        <v>0.03371261534188696</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1790053412.82343</v>
+        <v>2192742507.30106</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1084481574563989</v>
+        <v>0.1352392134971671</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03612296703640078</v>
+        <v>0.02722991122590589</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2763878292.593241</v>
+        <v>3062147138.52434</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08489213206968842</v>
+        <v>0.09370603562978685</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03958432510921881</v>
+        <v>0.04555655227084442</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2188179070.474597</v>
+        <v>1694824808.355056</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1095691406467196</v>
+        <v>0.08672871943776997</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04492257687516976</v>
+        <v>0.03785411063362077</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4534696884.04218</v>
+        <v>4510334754.21845</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1729109268035874</v>
+        <v>0.1114485752978284</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01917057590731814</v>
+        <v>0.01832041856972982</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2583230878.731881</v>
+        <v>3012637193.344946</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1070388554842605</v>
+        <v>0.08776303860868501</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03238581264068498</v>
+        <v>0.03046099213532895</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3383266058.618433</v>
+        <v>3014274427.981354</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1269727302246158</v>
+        <v>0.09869251269105055</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02791120974894571</v>
+        <v>0.02788573110249563</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4719622325.38646</v>
+        <v>3138021749.230912</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1353639799268428</v>
+        <v>0.1558362651864376</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01820723373517987</v>
+        <v>0.02310572556757677</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2830314738.665273</v>
+        <v>2320255813.132133</v>
       </c>
       <c r="F101" t="n">
-        <v>0.200962363680564</v>
+        <v>0.1830670154105096</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04170611451650238</v>
+        <v>0.05104507349269288</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_25.xlsx
+++ b/output/fit_clients/fit_round_25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2019927200.181583</v>
+        <v>2323179538.259243</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08562435999574741</v>
+        <v>0.09853167648204418</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03143686863911147</v>
+        <v>0.04269456021700758</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1931421783.993705</v>
+        <v>1650264814.769523</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1287408996797566</v>
+        <v>0.1234900548743053</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03564422919515631</v>
+        <v>0.04738035451467629</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3224686242.971859</v>
+        <v>3465529860.411086</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1561355109698941</v>
+        <v>0.126642804188816</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02826184205193807</v>
+        <v>0.0268247921716952</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>19</v>
+      </c>
+      <c r="J4" t="n">
+        <v>24</v>
+      </c>
+      <c r="K4" t="n">
+        <v>164.0227207898454</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2831425649.930983</v>
+        <v>2573173145.54459</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09769308227641338</v>
+        <v>0.1011686883447663</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0419780859429458</v>
+        <v>0.05048227343469457</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>13</v>
+      </c>
+      <c r="J5" t="n">
+        <v>24</v>
+      </c>
+      <c r="K5" t="n">
+        <v>93.98733164760631</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2635756792.050777</v>
+        <v>2392585187.427691</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1470661817201238</v>
+        <v>0.1207641549263511</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03955063044648096</v>
+        <v>0.05193892081757585</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +680,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2050482881.81917</v>
+        <v>2544745886.839754</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0938411041777477</v>
+        <v>0.09767768454542057</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04970624707041072</v>
+        <v>0.03063600011824727</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2401388272.759478</v>
+        <v>3175252657.021761</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1404850906401717</v>
+        <v>0.1392243487739301</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02572469572559689</v>
+        <v>0.02763346621104053</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>22</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2137841654.747971</v>
+        <v>2110077323.169107</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1231601654576608</v>
+        <v>0.1365399706503473</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02360392192584863</v>
+        <v>0.02457515871335164</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +785,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5104898529.76647</v>
+        <v>5618104169.002194</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2150064503985656</v>
+        <v>0.1730996657635842</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05136747987057153</v>
+        <v>0.03501165539999341</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>24</v>
+      </c>
+      <c r="J10" t="n">
+        <v>25</v>
+      </c>
+      <c r="K10" t="n">
+        <v>238.9245578120489</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +822,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3221279192.03482</v>
+        <v>3991865468.823639</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1295141572811603</v>
+        <v>0.1838286660720057</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04115295414311131</v>
+        <v>0.03866856987864803</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>10</v>
+      </c>
+      <c r="J11" t="n">
+        <v>25</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2904424775.636656</v>
+        <v>2227900988.795807</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1666105890801853</v>
+        <v>0.1787336678094639</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05051227309493271</v>
+        <v>0.03911475457340294</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +892,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3770228370.786689</v>
+        <v>3961892665.994981</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09815004891697485</v>
+        <v>0.08156074524354918</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0217908386841567</v>
+        <v>0.02681211483711303</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>11</v>
+      </c>
+      <c r="J13" t="n">
+        <v>25</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +921,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3321866591.932912</v>
+        <v>2474302471.520154</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1445690965508543</v>
+        <v>0.1734916184009104</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04383915231264435</v>
+        <v>0.03640562678809343</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>24</v>
+      </c>
+      <c r="K14" t="n">
+        <v>81.0924439309577</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1417800040.234375</v>
+        <v>1587415179.180026</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0898889446252837</v>
+        <v>0.07626460874383409</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03795897391244957</v>
+        <v>0.04158081111849784</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2169810359.208786</v>
+        <v>1756945450.256593</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1008332299434212</v>
+        <v>0.07109493456119839</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05081990173018616</v>
+        <v>0.03845550490989866</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1034,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4981001363.993757</v>
+        <v>5009562331.18169</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1676710415743017</v>
+        <v>0.1650544772983809</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04555820330345478</v>
+        <v>0.03869229951133109</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>12</v>
+      </c>
+      <c r="J17" t="n">
+        <v>24</v>
+      </c>
+      <c r="K17" t="n">
+        <v>197.725253935163</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1065,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2883958216.168099</v>
+        <v>3015367660.295556</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1541996648078991</v>
+        <v>0.1556233220251847</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03257764930792197</v>
+        <v>0.02909574615056653</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>24</v>
+      </c>
+      <c r="K18" t="n">
+        <v>121.1617682300472</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1256871826.096268</v>
+        <v>1318808931.071081</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1899374012114939</v>
+        <v>0.18973352649808</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02727158545525881</v>
+        <v>0.02662105837612181</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1143,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2785166150.842787</v>
+        <v>2500543761.762494</v>
       </c>
       <c r="F20" t="n">
-        <v>0.121682726638579</v>
+        <v>0.1012474244506518</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03151329190138415</v>
+        <v>0.03056302155293543</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1172,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1717117361.91452</v>
+        <v>1823063551.726597</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07079916272830555</v>
+        <v>0.09868312875046942</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03368091775046074</v>
+        <v>0.03970953023710302</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1207,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2890799686.582657</v>
+        <v>2819298287.112015</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1212634344953069</v>
+        <v>0.08979303742544258</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0558112945173664</v>
+        <v>0.05462342608254936</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>7</v>
+      </c>
+      <c r="J22" t="n">
+        <v>24</v>
+      </c>
+      <c r="K22" t="n">
+        <v>94.484118937822</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1244,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1438550102.496042</v>
+        <v>1275243931.869863</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1595549700573523</v>
+        <v>0.1827925029683927</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04644956017933411</v>
+        <v>0.04001875219644915</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1279,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3836622054.341836</v>
+        <v>3083387979.403644</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09961121218388153</v>
+        <v>0.1111914364185382</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03308115286485909</v>
+        <v>0.03688210833455308</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>7</v>
+      </c>
+      <c r="J24" t="n">
+        <v>22</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1314,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1272193475.347335</v>
+        <v>1230865570.253377</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08182686038035306</v>
+        <v>0.116901261460615</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02289499053237716</v>
+        <v>0.02683649089019841</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1349,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1291907579.088841</v>
+        <v>979522347.4079797</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1101702016457729</v>
+        <v>0.09020236134705852</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02794194566660936</v>
+        <v>0.0247893389838825</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1390,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4353470724.860679</v>
+        <v>3681693602.147578</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1362589013667121</v>
+        <v>0.121284599094715</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02340325405819145</v>
+        <v>0.01810403288518672</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>11</v>
+      </c>
+      <c r="J27" t="n">
+        <v>24</v>
+      </c>
+      <c r="K27" t="n">
+        <v>147.0475557528493</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1421,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3833381103.755098</v>
+        <v>2699763363.22907</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1407316701381338</v>
+        <v>0.09527880722280313</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04334414827657449</v>
+        <v>0.04453972729445299</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>7</v>
+      </c>
+      <c r="J28" t="n">
+        <v>23</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1456,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5417010832.388036</v>
+        <v>4593796815.652039</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1028509266030425</v>
+        <v>0.1395194255540325</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03681441080170356</v>
+        <v>0.03612883265022408</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>23</v>
+      </c>
+      <c r="J29" t="n">
+        <v>25</v>
+      </c>
+      <c r="K29" t="n">
+        <v>241.8910285892453</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1493,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1553280076.26898</v>
+        <v>2058658290.452569</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09031926044826429</v>
+        <v>0.1023418511835111</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03281923755317611</v>
+        <v>0.03226158456438477</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1528,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1251987837.368083</v>
+        <v>1391673352.85622</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07625222959478632</v>
+        <v>0.1064713381559465</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04829845937547749</v>
+        <v>0.04840882951412551</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1569,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1880478689.500945</v>
+        <v>1398085787.149283</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07979937128335111</v>
+        <v>0.1034357856479556</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02567969193252714</v>
+        <v>0.0384433161272961</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1598,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2783951062.57923</v>
+        <v>2843110426.778071</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1867483203250286</v>
+        <v>0.1679416624707071</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04325819288339348</v>
+        <v>0.0607269349723833</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1633,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1229289049.883295</v>
+        <v>1398873701.321116</v>
       </c>
       <c r="F34" t="n">
-        <v>0.105363814304028</v>
+        <v>0.09437126698769963</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0266335997810758</v>
+        <v>0.01727309196067892</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1674,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1291192261.228068</v>
+        <v>831613864.6628082</v>
       </c>
       <c r="F35" t="n">
-        <v>0.117599363806061</v>
+        <v>0.1017264085261751</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0377905062278636</v>
+        <v>0.03473578144636817</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1703,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2329998072.844988</v>
+        <v>3234253972.199489</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1109378050807326</v>
+        <v>0.1580584450117487</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02105168809878284</v>
+        <v>0.01801992890643722</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1744,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1947539759.645719</v>
+        <v>2241744912.331223</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1077972659448885</v>
+        <v>0.07341753558220993</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03245601913505825</v>
+        <v>0.03321016070585113</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1773,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1631006157.027109</v>
+        <v>1688695578.579256</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09686723124465599</v>
+        <v>0.09511983244071474</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03074141810477627</v>
+        <v>0.03570881893236533</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1808,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2102226360.774167</v>
+        <v>1553117890.550085</v>
       </c>
       <c r="F39" t="n">
-        <v>0.133705620419833</v>
+        <v>0.1531192835410255</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02689824701473129</v>
+        <v>0.02529811658417155</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1843,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1547162011.518012</v>
+        <v>1108555603.625026</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1549575302087095</v>
+        <v>0.1158719062874637</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05366061954729982</v>
+        <v>0.05248372409135613</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1878,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2522720491.176041</v>
+        <v>2445473141.688152</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1387911957837509</v>
+        <v>0.1053409788380254</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0435798631542965</v>
+        <v>0.04562501368188396</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1913,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2908183421.622597</v>
+        <v>3486090474.634598</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1225189982628497</v>
+        <v>0.09875835360700129</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03452920240866756</v>
+        <v>0.03174982318821765</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>7</v>
+      </c>
+      <c r="J42" t="n">
+        <v>25</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1954,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2562792806.678162</v>
+        <v>2233758578.921016</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1539578863960792</v>
+        <v>0.1628750076976662</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02442286091451103</v>
+        <v>0.02441190213807816</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1989,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2135102758.999503</v>
+        <v>2280510318.355081</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06946386370944085</v>
+        <v>0.0649716143521278</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03626702269684346</v>
+        <v>0.03621313208431808</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2018,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1681375085.48478</v>
+        <v>1819848496.972051</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1805320408694145</v>
+        <v>0.1351272991053634</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04754141617236486</v>
+        <v>0.05132515919319378</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2053,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4546145941.782247</v>
+        <v>5182039609.753846</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1539745598682642</v>
+        <v>0.1364002759352209</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04740312455079978</v>
+        <v>0.05661714173025377</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>14</v>
+      </c>
+      <c r="J46" t="n">
+        <v>25</v>
+      </c>
+      <c r="K46" t="n">
+        <v>215.0132942996319</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +2096,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3835748412.075731</v>
+        <v>4208456508.239718</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1810521826316827</v>
+        <v>0.1516863744003614</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04715080404015552</v>
+        <v>0.04944742958071796</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>10</v>
+      </c>
+      <c r="J47" t="n">
+        <v>24</v>
+      </c>
+      <c r="K47" t="n">
+        <v>186.5538951539123</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2127,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3850111032.342544</v>
+        <v>3769542029.75446</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0804246071806923</v>
+        <v>0.07473687011887883</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03354965920508199</v>
+        <v>0.03417401263163861</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>8</v>
+      </c>
+      <c r="J48" t="n">
+        <v>24</v>
+      </c>
+      <c r="K48" t="n">
+        <v>189.0893062877184</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2170,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1531261588.937059</v>
+        <v>1773239644.065142</v>
       </c>
       <c r="F49" t="n">
-        <v>0.164007621744509</v>
+        <v>0.1782162370584729</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03567897250853885</v>
+        <v>0.0279141230628362</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2199,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2977056773.274071</v>
+        <v>3563135989.832203</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1726009584995336</v>
+        <v>0.1525933530140555</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05078264684314721</v>
+        <v>0.04257047213597224</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>7</v>
+      </c>
+      <c r="J50" t="n">
+        <v>25</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2234,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1419706620.907891</v>
+        <v>1253123567.986776</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1220304254746992</v>
+        <v>0.1630878032511771</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05383882489951082</v>
+        <v>0.04936387926387366</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2269,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3790434691.310887</v>
+        <v>4472518998.762416</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1047578837699439</v>
+        <v>0.09177596226081873</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04291918169279338</v>
+        <v>0.05254698954225746</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>18</v>
+      </c>
+      <c r="J52" t="n">
+        <v>25</v>
+      </c>
+      <c r="K52" t="n">
+        <v>230.424977702119</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2306,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2955978299.242702</v>
+        <v>2800691234.08244</v>
       </c>
       <c r="F53" t="n">
-        <v>0.189992748852271</v>
+        <v>0.1476566002680688</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02373133805191198</v>
+        <v>0.02812215804883581</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" t="n">
+        <v>17</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2341,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3851840747.391459</v>
+        <v>3221527471.32768</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1168886101640631</v>
+        <v>0.1696808700478123</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04426908549169194</v>
+        <v>0.0457870898368016</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>11</v>
+      </c>
+      <c r="J54" t="n">
+        <v>24</v>
+      </c>
+      <c r="K54" t="n">
+        <v>138.0857166941616</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2378,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4211748798.641133</v>
+        <v>4744924787.837711</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2219167479574483</v>
+        <v>0.1575756770597628</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0292461188185502</v>
+        <v>0.02631193858702646</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>11</v>
+      </c>
+      <c r="J55" t="n">
+        <v>25</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2419,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1568729214.523816</v>
+        <v>1468753202.615397</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1503995750638385</v>
+        <v>0.1353768468739101</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04499121276087326</v>
+        <v>0.03920222939792194</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2454,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4508887727.480391</v>
+        <v>4070204069.922295</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1295582390783604</v>
+        <v>0.1819757031855133</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02319375137539432</v>
+        <v>0.02507863341333917</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>9</v>
+      </c>
+      <c r="J57" t="n">
+        <v>25</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2483,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1505060391.079485</v>
+        <v>1309445107.410357</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1710397244168423</v>
+        <v>0.1636285880718905</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0333579816180056</v>
+        <v>0.02809358370628261</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2524,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3724512529.38567</v>
+        <v>4208592987.728904</v>
       </c>
       <c r="F59" t="n">
-        <v>0.107103864293015</v>
+        <v>0.1271285397866863</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04356099530804515</v>
+        <v>0.03971022087301516</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>12</v>
+      </c>
+      <c r="J59" t="n">
+        <v>24</v>
+      </c>
+      <c r="K59" t="n">
+        <v>186.9044860300729</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2555,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2741841060.693204</v>
+        <v>3466014750.021011</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1620436288721828</v>
+        <v>0.1517883845435882</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02128604074183331</v>
+        <v>0.03045912438100204</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2</v>
+      </c>
+      <c r="J60" t="n">
+        <v>25</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2590,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3389650598.652829</v>
+        <v>2164402830.345803</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1140214111895041</v>
+        <v>0.1669026722128607</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02704406539490708</v>
+        <v>0.01994964060258489</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2625,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2001313781.156957</v>
+        <v>1294719162.892512</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1455493895720838</v>
+        <v>0.1506072361472357</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04189045080204778</v>
+        <v>0.04136445063833253</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2660,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3843626498.410416</v>
+        <v>5605088339.798659</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06982431991584864</v>
+        <v>0.06955978371721887</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0320412351771576</v>
+        <v>0.033535986100779</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>12</v>
+      </c>
+      <c r="J63" t="n">
+        <v>24</v>
+      </c>
+      <c r="K63" t="n">
+        <v>196.2349138375047</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2697,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3933312130.418529</v>
+        <v>4836467380.045967</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1199671308729086</v>
+        <v>0.1517285029584748</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03198809714374429</v>
+        <v>0.02978347937471908</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>12</v>
+      </c>
+      <c r="J64" t="n">
+        <v>25</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2738,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3773036411.662714</v>
+        <v>5531608619.928772</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1140353837898896</v>
+        <v>0.1078722399909185</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02749428560877108</v>
+        <v>0.02455723055067377</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>20</v>
+      </c>
+      <c r="J65" t="n">
+        <v>25</v>
+      </c>
+      <c r="K65" t="n">
+        <v>215.3724154389053</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2769,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3630446185.759859</v>
+        <v>3785320438.221668</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1048008903034224</v>
+        <v>0.1416427752368773</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04473124501707895</v>
+        <v>0.03440809878532582</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>12</v>
+      </c>
+      <c r="J66" t="n">
+        <v>25</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2804,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2975688539.238811</v>
+        <v>2988019471.150452</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06912114562847491</v>
+        <v>0.09198051129122571</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04803184320956923</v>
+        <v>0.05075861445390635</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2839,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5669703674.650575</v>
+        <v>5020061987.08458</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1478653116944468</v>
+        <v>0.1440522596745433</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03956776760890209</v>
+        <v>0.03855947497664385</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>12</v>
+      </c>
+      <c r="J68" t="n">
+        <v>25</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2874,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2292355414.67477</v>
+        <v>1755763911.75303</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1520067155925297</v>
+        <v>0.1325244684686591</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0370222480437688</v>
+        <v>0.0368122907540062</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2909,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3605702805.402871</v>
+        <v>3194563697.428058</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1021776669107357</v>
+        <v>0.07364197969420293</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03317405068309552</v>
+        <v>0.03890338095554403</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>17</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2944,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4363617205.352667</v>
+        <v>3424442516.5525</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1692605585555072</v>
+        <v>0.1294794570122894</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03199689020578014</v>
+        <v>0.03209678779573169</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>20</v>
+      </c>
+      <c r="J71" t="n">
+        <v>23</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2092426275.577501</v>
+        <v>2070506004.31267</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09889295536780682</v>
+        <v>0.0921359675825731</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03443983043962301</v>
+        <v>0.03505863170834356</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3014,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2622188287.811364</v>
+        <v>2643367484.834574</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07431148642179158</v>
+        <v>0.07261044207424358</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04451692562243557</v>
+        <v>0.03517865122683684</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>11</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3049,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3338877138.674851</v>
+        <v>3746250703.767862</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1377771255860287</v>
+        <v>0.1596294381575073</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02237468985397479</v>
+        <v>0.03438721469098237</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>7</v>
+      </c>
+      <c r="J74" t="n">
+        <v>24</v>
+      </c>
+      <c r="K74" t="n">
+        <v>189.078951323777</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3092,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2365424833.42904</v>
+        <v>2021583615.628074</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1594192814970928</v>
+        <v>0.1369594905323776</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03169905822576904</v>
+        <v>0.03000611836132642</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3121,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4624756629.391981</v>
+        <v>4578770795.983764</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1122947657916792</v>
+        <v>0.1026798470131792</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02146883630093593</v>
+        <v>0.02782821308958635</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>11</v>
+      </c>
+      <c r="J76" t="n">
+        <v>25</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1926672901.546511</v>
+        <v>1942941586.008449</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1239683976695859</v>
+        <v>0.1549431294974312</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02410885525553373</v>
+        <v>0.02486852625857227</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3191,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4060201822.331456</v>
+        <v>3395907631.463014</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1143725319294775</v>
+        <v>0.0952797480986556</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03546047952270128</v>
+        <v>0.04481474897790474</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>10</v>
+      </c>
+      <c r="J78" t="n">
+        <v>23</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3232,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1678911266.573433</v>
+        <v>1301104758.940897</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1354230134886699</v>
+        <v>0.1066426048442284</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03137972309521725</v>
+        <v>0.0318836451141903</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3261,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4772920918.063789</v>
+        <v>4287873061.352535</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08676133422196609</v>
+        <v>0.08061465983733576</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03318195270678034</v>
+        <v>0.0264018774917227</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>12</v>
+      </c>
+      <c r="J80" t="n">
+        <v>24</v>
+      </c>
+      <c r="K80" t="n">
+        <v>168.5134770431438</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3298,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3869343876.594801</v>
+        <v>4016585949.882046</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1138818431037305</v>
+        <v>0.08899516558033975</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03234513961255194</v>
+        <v>0.02225692308144881</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>11</v>
+      </c>
+      <c r="J81" t="n">
+        <v>25</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3333,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4746587879.06622</v>
+        <v>3429713321.566969</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1608422647549884</v>
+        <v>0.2000190358312703</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02080357916418736</v>
+        <v>0.02490972271731593</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
       </c>
+      <c r="I82" t="n">
+        <v>13</v>
+      </c>
+      <c r="J82" t="n">
+        <v>23</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2441307817.733648</v>
+        <v>1712197588.687369</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1392228812548761</v>
+        <v>0.1119657752978066</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02969182556940131</v>
+        <v>0.028745092177084</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2191065115.473234</v>
+        <v>2407657820.62227</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09409028241132086</v>
+        <v>0.1062740076518001</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05057250509209921</v>
+        <v>0.0487309169193998</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3562189908.2487</v>
+        <v>2685587537.590677</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1790212424461637</v>
+        <v>0.1741182713701171</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04474223413325961</v>
+        <v>0.05019706435423368</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>4</v>
+      </c>
+      <c r="J85" t="n">
+        <v>17</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1923804783.405743</v>
+        <v>1948566467.919443</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1682317163704297</v>
+        <v>0.1631939208167397</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02739380684911674</v>
+        <v>0.02131256933308269</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1167568773.605272</v>
+        <v>1267937633.682093</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1172579637605147</v>
+        <v>0.1754645499537622</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04066312588425035</v>
+        <v>0.03480419338624825</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3376320853.514552</v>
+        <v>3451022785.091118</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1107693401457476</v>
+        <v>0.1687211367012234</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03719221681922632</v>
+        <v>0.03776813146167006</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>25</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3375841592.483022</v>
+        <v>2523195924.824114</v>
       </c>
       <c r="F89" t="n">
-        <v>0.110027291490746</v>
+        <v>0.1191804934229884</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0281023986747567</v>
+        <v>0.04112868328840031</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>17</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1563771410.44518</v>
+        <v>1772254051.613715</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1044415479616666</v>
+        <v>0.08318376486232383</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04612055458998989</v>
+        <v>0.04149634174863783</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1800252104.091881</v>
+        <v>1985015504.229087</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1735885461119338</v>
+        <v>0.1908002021670825</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04195694538510138</v>
+        <v>0.05181649907511476</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2244731170.384375</v>
+        <v>1896886037.217718</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08311941349558601</v>
+        <v>0.080818332023763</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04604560086865796</v>
+        <v>0.04228966140822192</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4444138503.427858</v>
+        <v>4621855275.414058</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1146790642393003</v>
+        <v>0.1162324463333197</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03371261534188696</v>
+        <v>0.05305823541759969</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>10</v>
+      </c>
+      <c r="J93" t="n">
+        <v>25</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2192742507.30106</v>
+        <v>1837213675.1737</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1352392134971671</v>
+        <v>0.1057031823444274</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02722991122590589</v>
+        <v>0.03899399203798264</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3062147138.52434</v>
+        <v>3199612724.880185</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09370603562978685</v>
+        <v>0.1366094822323846</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04555655227084442</v>
+        <v>0.03434910649244655</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1694824808.355056</v>
+        <v>1634540868.094396</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08672871943776997</v>
+        <v>0.09903785544921415</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03785411063362077</v>
+        <v>0.04337602065821689</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4510334754.21845</v>
+        <v>3975657610.007736</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1114485752978284</v>
+        <v>0.1379603459234253</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01832041856972982</v>
+        <v>0.0232609358267115</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>12</v>
+      </c>
+      <c r="J97" t="n">
+        <v>24</v>
+      </c>
+      <c r="K97" t="n">
+        <v>209.4743587385131</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3012637193.344946</v>
+        <v>2767919264.342639</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08776303860868501</v>
+        <v>0.09507828351693981</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03046099213532895</v>
+        <v>0.01984814945462316</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>6</v>
+      </c>
+      <c r="J98" t="n">
+        <v>21</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3014274427.981354</v>
+        <v>3057187853.116793</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09869251269105055</v>
+        <v>0.1009238111776361</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02788573110249563</v>
+        <v>0.03035148376831802</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3138021749.230912</v>
+        <v>3702199732.100712</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1558362651864376</v>
+        <v>0.1144013188740613</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02310572556757677</v>
+        <v>0.02039122827537533</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>11</v>
+      </c>
+      <c r="J100" t="n">
+        <v>25</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2320255813.132133</v>
+        <v>2243722474.526909</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1830670154105096</v>
+        <v>0.1601437867715982</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05104507349269288</v>
+        <v>0.05466570865598766</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
